--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -61,55 +64,67 @@
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>gt</t>
@@ -118,46 +133,37 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -634,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8527397260273972</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,16 +711,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5925925925925926</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0.9166666666666666</v>
@@ -834,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4883720930232558</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9164490861618799</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>351</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>351</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4576271186440678</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.9069767441860465</v>
@@ -930,17 +936,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,21 +982,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,21 +1032,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.2684563758389262</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>109</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8679245283018868</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,12 +1186,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.8620689655172413</v>
@@ -1139,16 +1217,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1186,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.76</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
         <v>38</v>
@@ -1264,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7588235294117647</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M23">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7152542372881356</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L24">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,47 +1394,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L25">
+        <v>69</v>
+      </c>
+      <c r="M25">
+        <v>69</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>25</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7071129707112971</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6914893617021277</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.676923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6741573033707865</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6078431372549019</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4383561643835616</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1550,33 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34">
-        <v>0.3974358974358974</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>31</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
